--- a/resources/GSTR3/Notes.xlsx
+++ b/resources/GSTR3/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GSTR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{847CBC50-3BC3-4DB6-B0CD-E79734FDF021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F474E41-0C7F-435F-A6E3-C6989A2E3041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{203F551E-58BE-4A2E-BFDB-4C870897D58E}"/>
   </bookViews>
@@ -488,7 +488,7 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>23</v>
@@ -536,10 +536,10 @@
         <v>17000001</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -565,10 +565,10 @@
         <v>17000002</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D3">
         <v>17</v>
@@ -594,10 +594,10 @@
         <v>17000003</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -623,10 +623,10 @@
         <v>17000004</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="D5">
         <v>17</v>
@@ -652,10 +652,10 @@
         <v>17000005</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -681,10 +681,10 @@
         <v>17000006</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -710,10 +710,10 @@
         <v>17000007</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D8">
         <v>12</v>
@@ -739,10 +739,10 @@
         <v>17000008</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D9">
         <v>7</v>
@@ -768,10 +768,10 @@
         <v>17000009</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -797,10 +797,10 @@
         <v>17000010</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D11">
         <v>10</v>

--- a/resources/GSTR3/Notes.xlsx
+++ b/resources/GSTR3/Notes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\GestionScolarite-XML\resources\GSTR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F474E41-0C7F-435F-A6E3-C6989A2E3041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9983F6-5541-4E71-8A0E-56F17D0D00AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{203F551E-58BE-4A2E-BFDB-4C870897D58E}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t>CNE</t>
   </si>
@@ -43,66 +43,6 @@
     <t>FirstName</t>
   </si>
   <si>
-    <t>Gstr3_FN1</t>
-  </si>
-  <si>
-    <t>Gstr3_FN2</t>
-  </si>
-  <si>
-    <t>Gstr3_FN3</t>
-  </si>
-  <si>
-    <t>Gstr3_FN4</t>
-  </si>
-  <si>
-    <t>Gstr3_FN5</t>
-  </si>
-  <si>
-    <t>Gstr3_FN6</t>
-  </si>
-  <si>
-    <t>Gstr3_FN7</t>
-  </si>
-  <si>
-    <t>Gstr3_FN8</t>
-  </si>
-  <si>
-    <t>Gstr3_FN9</t>
-  </si>
-  <si>
-    <t>Gstr3_FN10</t>
-  </si>
-  <si>
-    <t>Gstr3_LN1</t>
-  </si>
-  <si>
-    <t>Gstr3_LN2</t>
-  </si>
-  <si>
-    <t>Gstr3_LN3</t>
-  </si>
-  <si>
-    <t>Gstr3_LN4</t>
-  </si>
-  <si>
-    <t>Gstr3_LN5</t>
-  </si>
-  <si>
-    <t>Gstr3_LN6</t>
-  </si>
-  <si>
-    <t>Gstr3_LN7</t>
-  </si>
-  <si>
-    <t>Gstr3_LN8</t>
-  </si>
-  <si>
-    <t>Gstr3_LN9</t>
-  </si>
-  <si>
-    <t>Gstr3_LN10</t>
-  </si>
-  <si>
     <t>Note_GSTR51</t>
   </si>
   <si>
@@ -119,6 +59,303 @@
   </si>
   <si>
     <t>Note_GSTR56</t>
+  </si>
+  <si>
+    <t>Jonah</t>
+  </si>
+  <si>
+    <t>Carlos Beasley</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Haviva Rivas</t>
+  </si>
+  <si>
+    <t>Tyrone</t>
+  </si>
+  <si>
+    <t>Jason Knox</t>
+  </si>
+  <si>
+    <t>Prescott</t>
+  </si>
+  <si>
+    <t>Gil Reyes</t>
+  </si>
+  <si>
+    <t>Cynthia</t>
+  </si>
+  <si>
+    <t>William Morin</t>
+  </si>
+  <si>
+    <t>Brandon</t>
+  </si>
+  <si>
+    <t>Beck Gentry</t>
+  </si>
+  <si>
+    <t>Penelope</t>
+  </si>
+  <si>
+    <t>Kyla Long</t>
+  </si>
+  <si>
+    <t>Hadassah</t>
+  </si>
+  <si>
+    <t>Melvin Bryant</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
+    <t>Lunea Mcneil</t>
+  </si>
+  <si>
+    <t>Ali</t>
+  </si>
+  <si>
+    <t>Emery Mooney</t>
+  </si>
+  <si>
+    <t>Rudyard</t>
+  </si>
+  <si>
+    <t>Leroy Battle</t>
+  </si>
+  <si>
+    <t>Rama</t>
+  </si>
+  <si>
+    <t>Alana Dean</t>
+  </si>
+  <si>
+    <t>Hamilton</t>
+  </si>
+  <si>
+    <t>Patrick Kennedy</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>Ella Valentine</t>
+  </si>
+  <si>
+    <t>Keith</t>
+  </si>
+  <si>
+    <t>Jescie Powell</t>
+  </si>
+  <si>
+    <t>Astra</t>
+  </si>
+  <si>
+    <t>Jena Rivera</t>
+  </si>
+  <si>
+    <t>Brielle</t>
+  </si>
+  <si>
+    <t>Diana Frost</t>
+  </si>
+  <si>
+    <t>Hedy Johns</t>
+  </si>
+  <si>
+    <t>Yasir</t>
+  </si>
+  <si>
+    <t>Berk Meadows</t>
+  </si>
+  <si>
+    <t>Quin</t>
+  </si>
+  <si>
+    <t>Kay Blanchard</t>
+  </si>
+  <si>
+    <t>Vivien</t>
+  </si>
+  <si>
+    <t>Brady Carroll</t>
+  </si>
+  <si>
+    <t>Madaline</t>
+  </si>
+  <si>
+    <t>Grace Delacruz</t>
+  </si>
+  <si>
+    <t>Nerea</t>
+  </si>
+  <si>
+    <t>Kenyon Hanson</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>Robin Singleton</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Rana Price</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Madison Moody</t>
+  </si>
+  <si>
+    <t>Dorian</t>
+  </si>
+  <si>
+    <t>Adele Charles</t>
+  </si>
+  <si>
+    <t>Marsden</t>
+  </si>
+  <si>
+    <t>Fuller Holt</t>
+  </si>
+  <si>
+    <t>Laith</t>
+  </si>
+  <si>
+    <t>Lev Bruce</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Myra Trujillo</t>
+  </si>
+  <si>
+    <t>Urielle</t>
+  </si>
+  <si>
+    <t>Isabella Roth</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Magee Mcguire</t>
+  </si>
+  <si>
+    <t>Jameson</t>
+  </si>
+  <si>
+    <t>Jennifer Page</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Giselle Rivera</t>
+  </si>
+  <si>
+    <t>Bradley</t>
+  </si>
+  <si>
+    <t>Dolan Shaw</t>
+  </si>
+  <si>
+    <t>Alyssa</t>
+  </si>
+  <si>
+    <t>Victor Collier</t>
+  </si>
+  <si>
+    <t>Adara</t>
+  </si>
+  <si>
+    <t>Haley Lawson</t>
+  </si>
+  <si>
+    <t>Sandra</t>
+  </si>
+  <si>
+    <t>Patience Bates</t>
+  </si>
+  <si>
+    <t>Byron</t>
+  </si>
+  <si>
+    <t>Alden Kinney</t>
+  </si>
+  <si>
+    <t>Colleen</t>
+  </si>
+  <si>
+    <t>Harrison Richards</t>
+  </si>
+  <si>
+    <t>Beverly</t>
+  </si>
+  <si>
+    <t>Melinda O'Neill</t>
+  </si>
+  <si>
+    <t>Oren</t>
+  </si>
+  <si>
+    <t>Zeph Lyons</t>
+  </si>
+  <si>
+    <t>Leo</t>
+  </si>
+  <si>
+    <t>Quinn Nixon</t>
+  </si>
+  <si>
+    <t>Samson</t>
+  </si>
+  <si>
+    <t>Wendy Skinner</t>
+  </si>
+  <si>
+    <t>Dawn</t>
+  </si>
+  <si>
+    <t>Reagan Morrison</t>
+  </si>
+  <si>
+    <t>Rhoda</t>
+  </si>
+  <si>
+    <t>Amery Guzman</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Armand Guerrero</t>
+  </si>
+  <si>
+    <t>Calista</t>
+  </si>
+  <si>
+    <t>Ivan Gill</t>
+  </si>
+  <si>
+    <t>Ivory</t>
+  </si>
+  <si>
+    <t>Rafael Heath</t>
+  </si>
+  <si>
+    <t>Rogan</t>
+  </si>
+  <si>
+    <t>Amber Donovan</t>
   </si>
 </sst>
 </file>
@@ -485,15 +722,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05DDC0FA-A10B-4957-A792-2F7FC086EBD0}">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="1" max="3" width="10.90625" style="2"/>
+    <col min="4" max="4" width="12.1796875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="10.90625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -507,22 +746,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
@@ -536,28 +775,28 @@
         <v>17000001</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2">
-        <v>13</v>
-      </c>
-      <c r="I2">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="2">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
+        <v>16</v>
+      </c>
+      <c r="H2" s="2">
+        <v>9</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
@@ -565,28 +804,28 @@
         <v>17000002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>13</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>14</v>
-      </c>
-      <c r="I3">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -594,28 +833,28 @@
         <v>17000003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>19</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>16</v>
-      </c>
-      <c r="I4">
-        <v>14</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8</v>
+      </c>
+      <c r="G4" s="2">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -623,28 +862,28 @@
         <v>17000004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5">
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2">
         <v>17</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
-      </c>
-      <c r="G5">
-        <v>17</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -655,25 +894,25 @@
         <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>14</v>
-      </c>
-      <c r="F6">
-        <v>11</v>
-      </c>
-      <c r="G6">
+        <v>18</v>
+      </c>
+      <c r="D6" s="2">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2">
         <v>6</v>
       </c>
-      <c r="H6">
-        <v>15</v>
-      </c>
-      <c r="I6">
-        <v>17</v>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" s="2">
+        <v>19</v>
+      </c>
+      <c r="I6" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -681,28 +920,28 @@
         <v>17000006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>15</v>
-      </c>
-      <c r="G7">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>13</v>
-      </c>
-      <c r="I7">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="D7" s="2">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2">
+        <v>9</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -710,28 +949,28 @@
         <v>17000007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>17</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="2">
         <v>15</v>
       </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
-      <c r="H8">
-        <v>9</v>
-      </c>
-      <c r="I8">
-        <v>11</v>
+      <c r="F8" s="2">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2">
+        <v>16</v>
+      </c>
+      <c r="H8" s="2">
+        <v>14</v>
+      </c>
+      <c r="I8" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -739,28 +978,28 @@
         <v>17000008</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9">
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <v>15</v>
+      </c>
+      <c r="E9" s="2">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2">
         <v>7</v>
-      </c>
-      <c r="E9">
-        <v>18</v>
-      </c>
-      <c r="F9">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9">
-        <v>16</v>
-      </c>
-      <c r="I9">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -768,28 +1007,28 @@
         <v>17000009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
+        <v>26</v>
+      </c>
+      <c r="D10" s="2">
+        <v>19</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7</v>
+      </c>
+      <c r="F10" s="2">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2">
+        <v>14</v>
+      </c>
+      <c r="H10" s="2">
+        <v>14</v>
+      </c>
+      <c r="I10" s="2">
         <v>15</v>
-      </c>
-      <c r="F10">
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <v>15</v>
-      </c>
-      <c r="I10">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
@@ -797,28 +1036,1188 @@
         <v>17000010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
+      </c>
+      <c r="F11" s="2">
+        <v>15</v>
+      </c>
+      <c r="G11" s="2">
+        <v>18</v>
+      </c>
+      <c r="H11" s="2">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" s="2">
+        <v>17000011</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="2">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2">
+        <v>13</v>
+      </c>
+      <c r="F12" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" s="2">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" s="2">
+        <v>17000012</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="2">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>17</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
         <v>12</v>
       </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" s="2">
+        <v>17000013</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2">
+        <v>6</v>
+      </c>
+      <c r="E14" s="2">
+        <v>12</v>
+      </c>
+      <c r="F14" s="2">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2">
+        <v>11</v>
+      </c>
+      <c r="H14" s="2">
+        <v>16</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" s="2">
+        <v>17000014</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="2">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2">
+        <v>5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>12</v>
+      </c>
+      <c r="G15" s="2">
+        <v>15</v>
+      </c>
+      <c r="H15" s="2">
+        <v>13</v>
+      </c>
+      <c r="I15" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" s="2">
+        <v>17000015</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6</v>
+      </c>
+      <c r="E16" s="2">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2">
+        <v>13</v>
+      </c>
+      <c r="I16" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="2">
+        <v>17000016</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2">
+        <v>14</v>
+      </c>
+      <c r="H17" s="2">
+        <v>16</v>
+      </c>
+      <c r="I17" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="2">
+        <v>17000017</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="2">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2">
+        <v>10</v>
+      </c>
+      <c r="F18" s="2">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2">
+        <v>16</v>
+      </c>
+      <c r="H18" s="2">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="2">
+        <v>17000018</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="2">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2">
+        <v>17</v>
+      </c>
+      <c r="F19" s="2">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2">
+        <v>11</v>
+      </c>
+      <c r="H19" s="2">
+        <v>9</v>
+      </c>
+      <c r="I19" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="2">
+        <v>17000019</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="2">
+        <v>19</v>
+      </c>
+      <c r="E20" s="2">
+        <v>6</v>
+      </c>
+      <c r="F20" s="2">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="2">
+        <v>17000020</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D21" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2">
+        <v>14</v>
+      </c>
+      <c r="F21" s="2">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2">
+        <v>10</v>
+      </c>
+      <c r="H21" s="2">
+        <v>19</v>
+      </c>
+      <c r="I21" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="2">
+        <v>17000021</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="2">
+        <v>15</v>
+      </c>
+      <c r="E22" s="2">
+        <v>14</v>
+      </c>
+      <c r="F22" s="2">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2">
+        <v>13</v>
+      </c>
+      <c r="H22" s="2">
+        <v>11</v>
+      </c>
+      <c r="I22" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="2">
+        <v>17000022</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2">
+        <v>16</v>
+      </c>
+      <c r="E23" s="2">
+        <v>12</v>
+      </c>
+      <c r="F23" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" s="2">
+        <v>17</v>
+      </c>
+      <c r="H23" s="2">
+        <v>8</v>
+      </c>
+      <c r="I23" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="2">
+        <v>17000023</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="2">
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" s="2">
+        <v>13</v>
+      </c>
+      <c r="H24" s="2">
+        <v>12</v>
+      </c>
+      <c r="I24" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="2">
+        <v>17000024</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="2">
         <v>7</v>
       </c>
-      <c r="F11">
+      <c r="E25" s="2">
+        <v>7</v>
+      </c>
+      <c r="F25" s="2">
+        <v>14</v>
+      </c>
+      <c r="G25" s="2">
+        <v>16</v>
+      </c>
+      <c r="H25" s="2">
         <v>8</v>
       </c>
-      <c r="G11">
-        <v>9</v>
-      </c>
-      <c r="H11">
+      <c r="I25" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="2">
+        <v>17000025</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10</v>
+      </c>
+      <c r="F26" s="2">
         <v>12</v>
       </c>
-      <c r="I11">
+      <c r="G26" s="2">
+        <v>11</v>
+      </c>
+      <c r="H26" s="2">
+        <v>19</v>
+      </c>
+      <c r="I26" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="2">
+        <v>17000026</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" s="2">
+        <v>16</v>
+      </c>
+      <c r="F27" s="2">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2">
+        <v>17</v>
+      </c>
+      <c r="H27" s="2">
+        <v>7</v>
+      </c>
+      <c r="I27" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="2">
+        <v>17000027</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="2">
+        <v>11</v>
+      </c>
+      <c r="E28" s="2">
+        <v>8</v>
+      </c>
+      <c r="F28" s="2">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2">
+        <v>16</v>
+      </c>
+      <c r="I28" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="2">
+        <v>17000028</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2">
+        <v>13</v>
+      </c>
+      <c r="F29" s="2">
+        <v>7</v>
+      </c>
+      <c r="G29" s="2">
+        <v>13</v>
+      </c>
+      <c r="H29" s="2">
+        <v>10</v>
+      </c>
+      <c r="I29" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="2">
+        <v>17000029</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="2">
+        <v>15</v>
+      </c>
+      <c r="E30" s="2">
+        <v>10</v>
+      </c>
+      <c r="F30" s="2">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2">
         <v>18</v>
+      </c>
+      <c r="H30" s="2">
+        <v>13</v>
+      </c>
+      <c r="I30" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="2">
+        <v>17000030</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="2">
+        <v>10</v>
+      </c>
+      <c r="E31" s="2">
+        <v>14</v>
+      </c>
+      <c r="F31" s="2">
+        <v>15</v>
+      </c>
+      <c r="G31" s="2">
+        <v>16</v>
+      </c>
+      <c r="H31" s="2">
+        <v>14</v>
+      </c>
+      <c r="I31" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <v>17000031</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10</v>
+      </c>
+      <c r="E32" s="2">
+        <v>6</v>
+      </c>
+      <c r="F32" s="2">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2">
+        <v>17</v>
+      </c>
+      <c r="H32" s="2">
+        <v>11</v>
+      </c>
+      <c r="I32" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="2">
+        <v>17000032</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="2">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2">
+        <v>19</v>
+      </c>
+      <c r="F33" s="2">
+        <v>8</v>
+      </c>
+      <c r="G33" s="2">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2">
+        <v>16</v>
+      </c>
+      <c r="I33" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="2">
+        <v>17000033</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="2">
+        <v>18</v>
+      </c>
+      <c r="E34" s="2">
+        <v>16</v>
+      </c>
+      <c r="F34" s="2">
+        <v>9</v>
+      </c>
+      <c r="G34" s="2">
+        <v>12</v>
+      </c>
+      <c r="H34" s="2">
+        <v>9</v>
+      </c>
+      <c r="I34" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="2">
+        <v>17000034</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35" s="2">
+        <v>14</v>
+      </c>
+      <c r="E35" s="2">
+        <v>10</v>
+      </c>
+      <c r="F35" s="2">
+        <v>8</v>
+      </c>
+      <c r="G35" s="2">
+        <v>13</v>
+      </c>
+      <c r="H35" s="2">
+        <v>14</v>
+      </c>
+      <c r="I35" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="2">
+        <v>17000035</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="2">
+        <v>18</v>
+      </c>
+      <c r="E36" s="2">
+        <v>17</v>
+      </c>
+      <c r="F36" s="2">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2">
+        <v>10</v>
+      </c>
+      <c r="I36" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="2">
+        <v>17000036</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="2">
+        <v>13</v>
+      </c>
+      <c r="E37" s="2">
+        <v>20</v>
+      </c>
+      <c r="F37" s="2">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2">
+        <v>18</v>
+      </c>
+      <c r="H37" s="2">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="2">
+        <v>17000037</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="2">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7</v>
+      </c>
+      <c r="F38" s="2">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2">
+        <v>11</v>
+      </c>
+      <c r="H38" s="2">
+        <v>10</v>
+      </c>
+      <c r="I38" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="2">
+        <v>17000038</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="2">
+        <v>7</v>
+      </c>
+      <c r="E39" s="2">
+        <v>14</v>
+      </c>
+      <c r="F39" s="2">
+        <v>12</v>
+      </c>
+      <c r="G39" s="2">
+        <v>11</v>
+      </c>
+      <c r="H39" s="2">
+        <v>7</v>
+      </c>
+      <c r="I39" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="2">
+        <v>17000039</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D40" s="2">
+        <v>9</v>
+      </c>
+      <c r="E40" s="2">
+        <v>13</v>
+      </c>
+      <c r="F40" s="2">
+        <v>15</v>
+      </c>
+      <c r="G40" s="2">
+        <v>11</v>
+      </c>
+      <c r="H40" s="2">
+        <v>17</v>
+      </c>
+      <c r="I40" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="2">
+        <v>17000040</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="2">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2">
+        <v>16</v>
+      </c>
+      <c r="F41" s="2">
+        <v>9</v>
+      </c>
+      <c r="G41" s="2">
+        <v>11</v>
+      </c>
+      <c r="H41" s="2">
+        <v>16</v>
+      </c>
+      <c r="I41" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="2">
+        <v>17000041</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="2">
+        <v>9</v>
+      </c>
+      <c r="E42" s="2">
+        <v>20</v>
+      </c>
+      <c r="F42" s="2">
+        <v>8</v>
+      </c>
+      <c r="G42" s="2">
+        <v>12</v>
+      </c>
+      <c r="H42" s="2">
+        <v>17</v>
+      </c>
+      <c r="I42" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="2">
+        <v>17000042</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="2">
+        <v>15</v>
+      </c>
+      <c r="E43" s="2">
+        <v>8</v>
+      </c>
+      <c r="F43" s="2">
+        <v>12</v>
+      </c>
+      <c r="G43" s="2">
+        <v>15</v>
+      </c>
+      <c r="H43" s="2">
+        <v>9</v>
+      </c>
+      <c r="I43" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="2">
+        <v>17000043</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="2">
+        <v>15</v>
+      </c>
+      <c r="E44" s="2">
+        <v>6</v>
+      </c>
+      <c r="F44" s="2">
+        <v>7</v>
+      </c>
+      <c r="G44" s="2">
+        <v>12</v>
+      </c>
+      <c r="H44" s="2">
+        <v>14</v>
+      </c>
+      <c r="I44" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="2">
+        <v>17000044</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="2">
+        <v>12</v>
+      </c>
+      <c r="E45" s="2">
+        <v>8</v>
+      </c>
+      <c r="F45" s="2">
+        <v>14</v>
+      </c>
+      <c r="G45" s="2">
+        <v>17</v>
+      </c>
+      <c r="H45" s="2">
+        <v>7</v>
+      </c>
+      <c r="I45" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="2">
+        <v>17000045</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="2">
+        <v>13</v>
+      </c>
+      <c r="E46" s="2">
+        <v>15</v>
+      </c>
+      <c r="F46" s="2">
+        <v>13</v>
+      </c>
+      <c r="G46" s="2">
+        <v>15</v>
+      </c>
+      <c r="H46" s="2">
+        <v>11</v>
+      </c>
+      <c r="I46" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="2">
+        <v>17000046</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="2">
+        <v>9</v>
+      </c>
+      <c r="E47" s="2">
+        <v>18</v>
+      </c>
+      <c r="F47" s="2">
+        <v>8</v>
+      </c>
+      <c r="G47" s="2">
+        <v>14</v>
+      </c>
+      <c r="H47" s="2">
+        <v>8</v>
+      </c>
+      <c r="I47" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="2">
+        <v>17000047</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="2">
+        <v>20</v>
+      </c>
+      <c r="E48" s="2">
+        <v>12</v>
+      </c>
+      <c r="F48" s="2">
+        <v>10</v>
+      </c>
+      <c r="G48" s="2">
+        <v>16</v>
+      </c>
+      <c r="H48" s="2">
+        <v>19</v>
+      </c>
+      <c r="I48" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="2">
+        <v>17000048</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="2">
+        <v>20</v>
+      </c>
+      <c r="E49" s="2">
+        <v>12</v>
+      </c>
+      <c r="F49" s="2">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2">
+        <v>11</v>
+      </c>
+      <c r="H49" s="2">
+        <v>13</v>
+      </c>
+      <c r="I49" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="2">
+        <v>17000049</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D50" s="2">
+        <v>14</v>
+      </c>
+      <c r="E50" s="2">
+        <v>18</v>
+      </c>
+      <c r="F50" s="2">
+        <v>7</v>
+      </c>
+      <c r="G50" s="2">
+        <v>17</v>
+      </c>
+      <c r="H50" s="2">
+        <v>16</v>
+      </c>
+      <c r="I50" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="2">
+        <v>17000050</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="2">
+        <v>16</v>
+      </c>
+      <c r="E51" s="2">
+        <v>13</v>
+      </c>
+      <c r="F51" s="2">
+        <v>11</v>
+      </c>
+      <c r="G51" s="2">
+        <v>13</v>
+      </c>
+      <c r="H51" s="2">
+        <v>8</v>
+      </c>
+      <c r="I51" s="2">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
